--- a/data/normalized/월_수출물가지수.xlsx
+++ b/data/normalized/월_수출물가지수.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B198"/>
+  <dimension ref="A1:B210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1961,6 +1961,102 @@
         <v>0.502269288956127</v>
       </c>
     </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>0.5264750378214825</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>0.4208499518635676</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>0.3548342731398707</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>0.5998257919589235</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>0.5099711181405583</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>0.426508438611313</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>0.5264750378214825</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>0.4776234355659468</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>0.4753128868106175</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>0.576536927520286</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>0.473662494842525</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>0.473662494842525</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
